--- a/src/private/importTemplates/customer_template.xlsx
+++ b/src/private/importTemplates/customer_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t xml:space="preserve">tag</t>
   </si>
+  <si>
+    <t xml:space="preserve">companiesPrimaryNames</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -92,6 +95,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -138,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,6 +158,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,10 +182,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,7 +195,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="16.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="14" style="0" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="26" style="0" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.61"/>
   </cols>
@@ -222,6 +238,9 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
